--- a/Management/Metadata/SurveyColumnID.xlsx
+++ b/Management/Metadata/SurveyColumnID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\Box\Wildlife Health Survey\Analysis\Data\OUTr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/rdt0029_auburn_edu/Documents/OtherProjects/WildBioKAP/Management/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A3F6F-DB8D-4063-BAF9-8CC0BFAC6EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F02A3F6F-DB8D-4063-BAF9-8CC0BFAC6EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62102D2A-901B-48C5-B930-C9342DFCA4FA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,6 +503,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,7 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,57 +549,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -691,6 +658,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -710,12 +711,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F71" xr:uid="{28725ECF-6729-48C9-AF9D-5AD9407099B7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="VALUE=1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="VALUE=1" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="VALUE=0" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,7 +988,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1004,10 +1005,10 @@
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2170,52 +2171,52 @@
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2235,7 +2236,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2255,15 +2256,15 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2283,7 +2284,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2303,24 +2304,24 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76"/>
